--- a/src/main/java/testdata/Testdata.xlsx
+++ b/src/main/java/testdata/Testdata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b02ebb17b2bda1e4/เอกสาร/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nakshatra\eclipse-workspace1\AutomationFramework\src\main\java\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{527185D6-8471-40BC-BB09-73A3D6484F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519A0B14-6C0A-42B8-B11A-69DEABA991B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7DBCAA5C-634F-48F3-82CB-67DF603786E5}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{7DBCAA5C-634F-48F3-82CB-67DF603786E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>username</t>
   </si>
@@ -42,13 +42,7 @@
     <t>password</t>
   </si>
   <si>
-    <t>yytes</t>
-  </si>
-  <si>
-    <t>eedfs</t>
-  </si>
-  <si>
-    <t>eedf</t>
+    <t>eedfssfssbnnvvrv</t>
   </si>
 </sst>
 </file>
@@ -431,13 +425,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EF13FC-56CE-4C52-83C7-7DAAA0F0DB35}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.21875" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
@@ -455,22 +453,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
